--- a/assets/data/googleFormUpdates.xlsx
+++ b/assets/data/googleFormUpdates.xlsx
@@ -112,48 +112,51 @@
     <t>full statehood for delhi</t>
   </si>
   <si>
+    <t>delhi to be made a trade and retail hub</t>
+  </si>
+  <si>
+    <t>governance on the mobile phone</t>
+  </si>
+  <si>
+    <t>promote rain water harvesting</t>
+  </si>
+  <si>
+    <t>contractual posts to be regularised</t>
+  </si>
+  <si>
+    <t>build 2 lakh public toilets</t>
+  </si>
+  <si>
+    <t>augmenting water resources</t>
+  </si>
+  <si>
+    <t>fair transparent water pricing</t>
+  </si>
+  <si>
+    <t>free lifeline water</t>
+  </si>
+  <si>
+    <t>water as right</t>
+  </si>
+  <si>
+    <t>water from munak canal</t>
+  </si>
+  <si>
+    <t>effective last mile connectivity</t>
+  </si>
+  <si>
+    <t>reducing pollution</t>
+  </si>
+  <si>
+    <t>cctv's in public spaces &amp; buses</t>
+  </si>
+  <si>
+    <t>women's security force</t>
+  </si>
+  <si>
     <t>wi-fi delhi</t>
   </si>
   <si>
-    <t>governance on the mobile phone</t>
-  </si>
-  <si>
-    <t>promote rain water harvesting</t>
-  </si>
-  <si>
-    <t>contractual posts to be regularised</t>
-  </si>
-  <si>
-    <t>build 2 lakh public toilets</t>
-  </si>
-  <si>
-    <t>augmenting water resources</t>
-  </si>
-  <si>
-    <t>fair transparent water pricing</t>
-  </si>
-  <si>
-    <t>free lifeline water</t>
-  </si>
-  <si>
-    <t>water as right</t>
-  </si>
-  <si>
-    <t>water from munak canal</t>
-  </si>
-  <si>
-    <t>effective last mile connectivity</t>
-  </si>
-  <si>
-    <t>reducing pollution</t>
-  </si>
-  <si>
-    <t>cctv's in public spaces &amp; buses</t>
-  </si>
-  <si>
-    <t>women's security force</t>
-  </si>
-  <si>
     <t>unified transport authority</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
   </si>
   <si>
     <t>swaraj bill</t>
-  </si>
-  <si>
-    <t>delhi to be made a trade and retail hub</t>
   </si>
   <si>
     <t>no fdi in retail</t>
@@ -7522,7 +7522,7 @@
         <v>43869.09081653935</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
         <v>158</v>
@@ -7551,7 +7551,7 @@
         <v>43869.09986590278</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
         <v>159</v>
@@ -7580,7 +7580,7 @@
         <v>43869.10208518519</v>
       </c>
       <c r="B133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
         <v>160</v>
@@ -7609,7 +7609,7 @@
         <v>43869.10807230324</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
         <v>161</v>
@@ -7638,7 +7638,7 @@
         <v>43869.11110887732</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
         <v>162</v>
@@ -7667,7 +7667,7 @@
         <v>43869.11385609954</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
         <v>163</v>
@@ -7783,7 +7783,7 @@
         <v>43869.13769361111</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C140" t="s">
         <v>164</v>
@@ -7812,7 +7812,7 @@
         <v>43869.1414143287</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
         <v>165</v>
@@ -7841,7 +7841,7 @@
         <v>43869.14462297453</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C142" t="s">
         <v>166</v>
@@ -7870,7 +7870,7 @@
         <v>43869.52253534722</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
         <v>167</v>
@@ -7899,7 +7899,7 @@
         <v>43869.56004645833</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
         <v>167</v>
@@ -7928,7 +7928,7 @@
         <v>43869.56596241898</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>167</v>
@@ -7957,7 +7957,7 @@
         <v>43869.56909885417</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
         <v>167</v>
@@ -8102,7 +8102,7 @@
         <v>43869.93102975695</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
         <v>167</v>
@@ -8131,7 +8131,7 @@
         <v>43869.93311890047</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C152" t="s">
         <v>167</v>
@@ -8276,7 +8276,7 @@
         <v>43874.52010319445</v>
       </c>
       <c r="B157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C157" t="s">
         <v>170</v>
@@ -8305,7 +8305,7 @@
         <v>43874.52657207176</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C158" t="s">
         <v>171</v>
@@ -8334,7 +8334,7 @@
         <v>43874.53485137731</v>
       </c>
       <c r="B159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C159" t="s">
         <v>172</v>
@@ -8363,7 +8363,7 @@
         <v>43874.62660695602</v>
       </c>
       <c r="B160" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
         <v>173</v>
@@ -8392,7 +8392,7 @@
         <v>43874.640658125</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C161" t="s">
         <v>174</v>
@@ -8421,7 +8421,7 @@
         <v>43874.64278998843</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
         <v>175</v>
@@ -8447,7 +8447,7 @@
         <v>43874.65329059028</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C163" t="s">
         <v>176</v>
@@ -8476,7 +8476,7 @@
         <v>43874.65623143518</v>
       </c>
       <c r="B164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
         <v>177</v>
@@ -8502,7 +8502,7 @@
         <v>43868.33751157407</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C165" t="s">
         <v>178</v>
@@ -8531,7 +8531,7 @@
         <v>43868.37953703704</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C166" t="s">
         <v>179</v>
@@ -8560,7 +8560,7 @@
         <v>43868.38605324074</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C167" t="s">
         <v>180</v>
@@ -8589,7 +8589,7 @@
         <v>43868.39331018519</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C168" t="s">
         <v>181</v>
@@ -8618,7 +8618,7 @@
         <v>43868.62936342593</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C169" t="s">
         <v>182</v>
@@ -8647,7 +8647,7 @@
         <v>43868.63222222222</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C170" t="s">
         <v>183</v>
@@ -8664,7 +8664,7 @@
         <v>43868.63592592593</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C171" t="s">
         <v>184</v>
@@ -8693,7 +8693,7 @@
         <v>43868.65063657407</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C172" t="s">
         <v>185</v>
@@ -8722,7 +8722,7 @@
         <v>43868.66204861111</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C173" t="s">
         <v>186</v>
@@ -8751,7 +8751,7 @@
         <v>43868.69770833333</v>
       </c>
       <c r="B174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C174" t="s">
         <v>187</v>
@@ -8780,7 +8780,7 @@
         <v>43868.72596064815</v>
       </c>
       <c r="B175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C175" t="s">
         <v>188</v>
@@ -8809,7 +8809,7 @@
         <v>43868.73173611111</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C176" t="s">
         <v>189</v>
@@ -8826,7 +8826,7 @@
         <v>43868.73971064815</v>
       </c>
       <c r="B177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C177" t="s">
         <v>190</v>
@@ -8855,7 +8855,7 @@
         <v>43868.74789351852</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C178" t="s">
         <v>191</v>
@@ -8884,7 +8884,7 @@
         <v>43868.75217592593</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C179" t="s">
         <v>192</v>
@@ -8913,7 +8913,7 @@
         <v>43868.75806712963</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C180" t="s">
         <v>193</v>
@@ -8942,7 +8942,7 @@
         <v>43868.76150462963</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C181" t="s">
         <v>194</v>
@@ -8971,7 +8971,7 @@
         <v>43868.76408564814</v>
       </c>
       <c r="B182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C182" t="s">
         <v>195</v>
@@ -8988,7 +8988,7 @@
         <v>43868.77351851852</v>
       </c>
       <c r="B183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C183" t="s">
         <v>196</v>
@@ -9005,7 +9005,7 @@
         <v>43868.78165509259</v>
       </c>
       <c r="B184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C184" t="s">
         <v>197</v>
@@ -9022,7 +9022,7 @@
         <v>43868.78706018518</v>
       </c>
       <c r="B185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C185" t="s">
         <v>198</v>
@@ -9054,7 +9054,7 @@
         <v>43868.78902777778</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
         <v>199</v>
@@ -9083,7 +9083,7 @@
         <v>43869.4671875</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C187" t="s">
         <v>200</v>
@@ -9112,7 +9112,7 @@
         <v>43869.47826388889</v>
       </c>
       <c r="B188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C188" t="s">
         <v>201</v>
@@ -9144,7 +9144,7 @@
         <v>43869.48142361111</v>
       </c>
       <c r="B189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C189" t="s">
         <v>202</v>
@@ -9173,7 +9173,7 @@
         <v>43869.48883101852</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C190" t="s">
         <v>203</v>
@@ -9202,7 +9202,7 @@
         <v>43869.49636574074</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C191" t="s">
         <v>204</v>
@@ -9231,7 +9231,7 @@
         <v>43869.51047453703</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s">
         <v>205</v>
@@ -9260,7 +9260,7 @@
         <v>43869.52630787037</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
         <v>206</v>
@@ -9289,7 +9289,7 @@
         <v>43869.5384375</v>
       </c>
       <c r="B194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C194" t="s">
         <v>207</v>
@@ -9309,7 +9309,7 @@
         <v>43869.54215277778</v>
       </c>
       <c r="B195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C195" t="s">
         <v>208</v>
@@ -9338,7 +9338,7 @@
         <v>43869.61543981481</v>
       </c>
       <c r="B196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C196" t="s">
         <v>209</v>
@@ -9367,7 +9367,7 @@
         <v>43869.62184027778</v>
       </c>
       <c r="B197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C197" t="s">
         <v>210</v>
@@ -9396,7 +9396,7 @@
         <v>43869.63670138889</v>
       </c>
       <c r="B198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C198" t="s">
         <v>211</v>
@@ -9413,7 +9413,7 @@
         <v>43869.64241898148</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C199" t="s">
         <v>212</v>
@@ -9430,7 +9430,7 @@
         <v>43869.66076388889</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C200" t="s">
         <v>213</v>
@@ -9459,7 +9459,7 @@
         <v>43869.67641203704</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C201" t="s">
         <v>214</v>
@@ -9488,7 +9488,7 @@
         <v>43869.68380787037</v>
       </c>
       <c r="B202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C202" t="s">
         <v>215</v>
@@ -9520,7 +9520,7 @@
         <v>43869.69579861111</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C203" t="s">
         <v>216</v>
@@ -9549,7 +9549,7 @@
         <v>43869.71686342593</v>
       </c>
       <c r="B204" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C204" t="s">
         <v>217</v>
@@ -9578,7 +9578,7 @@
         <v>43869.72950231482</v>
       </c>
       <c r="B205" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C205" t="s">
         <v>218</v>
@@ -9607,7 +9607,7 @@
         <v>43869.83035879629</v>
       </c>
       <c r="B206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C206" t="s">
         <v>219</v>
@@ -9624,7 +9624,7 @@
         <v>43869.8330787037</v>
       </c>
       <c r="B207" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C207" t="s">
         <v>220</v>
@@ -9653,7 +9653,7 @@
         <v>43869.83704861111</v>
       </c>
       <c r="B208" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C208" t="s">
         <v>221</v>
@@ -9682,7 +9682,7 @@
         <v>43869.8443287037</v>
       </c>
       <c r="B209" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C209" t="s">
         <v>222</v>
@@ -9711,7 +9711,7 @@
         <v>43869.86623842592</v>
       </c>
       <c r="B210" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C210" t="s">
         <v>223</v>
@@ -9740,7 +9740,7 @@
         <v>43869.88210648148</v>
       </c>
       <c r="B211" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C211" t="s">
         <v>224</v>
@@ -9757,7 +9757,7 @@
         <v>43869.89247685186</v>
       </c>
       <c r="B212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C212" t="s">
         <v>225</v>
@@ -9774,7 +9774,7 @@
         <v>43869.89489583333</v>
       </c>
       <c r="B213" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C213" t="s">
         <v>226</v>
@@ -9803,7 +9803,7 @@
         <v>43869.90170138889</v>
       </c>
       <c r="B214" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C214" t="s">
         <v>227</v>
@@ -9832,7 +9832,7 @@
         <v>43869.90785879629</v>
       </c>
       <c r="B215" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C215" t="s">
         <v>228</v>
@@ -9861,7 +9861,7 @@
         <v>43869.91719907407</v>
       </c>
       <c r="B216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C216" t="s">
         <v>229</v>
@@ -9890,7 +9890,7 @@
         <v>43872.10340277778</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C217" t="s">
         <v>230</v>
@@ -9919,7 +9919,7 @@
         <v>43872.10603009259</v>
       </c>
       <c r="B218" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C218" t="s">
         <v>231</v>
@@ -9948,7 +9948,7 @@
         <v>43872.47861111111</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C219" t="s">
         <v>232</v>
@@ -9980,7 +9980,7 @@
         <v>43872.47861111111</v>
       </c>
       <c r="B220" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C220" t="s">
         <v>233</v>
@@ -10009,7 +10009,7 @@
         <v>43872.48537037037</v>
       </c>
       <c r="B221" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C221" t="s">
         <v>234</v>
@@ -10038,7 +10038,7 @@
         <v>43872.61421296297</v>
       </c>
       <c r="B222" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C222" t="s">
         <v>235</v>
@@ -10067,7 +10067,7 @@
         <v>43872.67921296296</v>
       </c>
       <c r="B223" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C223" t="s">
         <v>236</v>
@@ -10096,7 +10096,7 @@
         <v>43873.58230324074</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C224" t="s">
         <v>237</v>
@@ -10125,7 +10125,7 @@
         <v>43873.60398148148</v>
       </c>
       <c r="B225" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C225" t="s">
         <v>238</v>
@@ -10154,7 +10154,7 @@
         <v>43873.61917824074</v>
       </c>
       <c r="B226" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C226" t="s">
         <v>239</v>
@@ -10183,7 +10183,7 @@
         <v>43877.12111111111</v>
       </c>
       <c r="B227" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s">
         <v>240</v>
@@ -10212,7 +10212,7 @@
         <v>43877.12481481482</v>
       </c>
       <c r="B228" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C228" t="s">
         <v>241</v>
@@ -10241,7 +10241,7 @@
         <v>43877.13001157407</v>
       </c>
       <c r="B229" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
         <v>242</v>
@@ -10258,7 +10258,7 @@
         <v>43877.13630787037</v>
       </c>
       <c r="B230" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s">
         <v>243</v>
